--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\OneDrive\Documents\Duke Academics\Fall 2024\Sourcing Data For Analytics\Alphanumeric Audio Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64CC7E8-6F95-42E0-B970-611831A08B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,778 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="255">
+  <si>
+    <t>Response_ID</t>
+  </si>
+  <si>
+    <t>Participant_ID</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Native Language</t>
+  </si>
+  <si>
+    <t>Familiarity with English</t>
+  </si>
+  <si>
+    <t>Accent Strength (Self reported)</t>
+  </si>
+  <si>
+    <t>Difficulties</t>
+  </si>
+  <si>
+    <t>Recording Machine</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Duration (secs)</t>
+  </si>
+  <si>
+    <t>R_1KvCEEGNThnpnzy</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Educated in English, but not my native language</t>
+  </si>
+  <si>
+    <t>About half the time</t>
+  </si>
+  <si>
+    <t>Phone Recorder</t>
+  </si>
+  <si>
+    <t>Saffron Robles</t>
+  </si>
+  <si>
+    <t>48 Ridge Road 407</t>
+  </si>
+  <si>
+    <t>R_3nAeHdtYMOFbRQJ</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Anannya</t>
+  </si>
+  <si>
+    <t>7204, McQueen Drive</t>
+  </si>
+  <si>
+    <t>R_1DN3Yy2ILEefmz8</t>
+  </si>
+  <si>
+    <t>Seraphina Balasubramanian</t>
+  </si>
+  <si>
+    <t>99 Willow Lane 493</t>
+  </si>
+  <si>
+    <t>R_1O7z12FZh2bL6ST</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Native speaker</t>
+  </si>
+  <si>
+    <t>Zane Robles</t>
+  </si>
+  <si>
+    <t>34 Elm Street 568</t>
+  </si>
+  <si>
+    <t>R_7qeKPomI8VjGOsK</t>
+  </si>
+  <si>
+    <t>External Microphone</t>
+  </si>
+  <si>
+    <t>Zuri Sutherland</t>
+  </si>
+  <si>
+    <t>56 Pine Tree Lane 640</t>
+  </si>
+  <si>
+    <t>R_34i05S8YXzyAyGE</t>
+  </si>
+  <si>
+    <t>Argentinian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Isla Santos</t>
+  </si>
+  <si>
+    <t>55 Stonewall Street 335</t>
+  </si>
+  <si>
+    <t>R_3f5pnhlvLlxkfu1</t>
+  </si>
+  <si>
+    <t>Basic knowledge; not fluent</t>
+  </si>
+  <si>
+    <t>Most of the time</t>
+  </si>
+  <si>
+    <t>Elysia Lobo</t>
+  </si>
+  <si>
+    <t>14 Silver Street 964</t>
+  </si>
+  <si>
+    <t>R_7OVSal7s7tNbjLO</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Asher Singh</t>
+  </si>
+  <si>
+    <t>161 Fairview Street 407</t>
+  </si>
+  <si>
+    <t>R_34Kh357EGklz2X7</t>
+  </si>
+  <si>
+    <t>Sable Daniel</t>
+  </si>
+  <si>
+    <t>58 Maple Valley Road 812</t>
+  </si>
+  <si>
+    <t>R_51hzd8Q0PcCS4Jb</t>
+  </si>
+  <si>
+    <t>Harlow Qureshi</t>
+  </si>
+  <si>
+    <t>290 Seaside Boulevard 275</t>
+  </si>
+  <si>
+    <t>R_5lWkQMcCDfrgWwV</t>
+  </si>
+  <si>
+    <t>Liam Patel</t>
+  </si>
+  <si>
+    <t>52 Golden Ridge Drive 418</t>
+  </si>
+  <si>
+    <t>R_4JsyJD7ticKbRiZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshana </t>
+  </si>
+  <si>
+    <t>FLAT NO 204 SATSANG SOCIETY THANE MUMBAI 411007</t>
+  </si>
+  <si>
+    <t>R_4s7PwXExwuw1cZa</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Plot No 43 Pasaydan Profeesor colony Jagaon 424005</t>
+  </si>
+  <si>
+    <t>R_49dhghc8TaDIOhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya Stark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 Casterly Rock Lannis Port </t>
+  </si>
+  <si>
+    <t>R_41aAifnTBI6jslp</t>
+  </si>
+  <si>
+    <t>Jorah Morment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 Dragos Khalasar Dothrakhi </t>
+  </si>
+  <si>
+    <t>R_4Cbjs7mWxj4Ri7v</t>
+  </si>
+  <si>
+    <t>Aditi Rampiya</t>
+  </si>
+  <si>
+    <t>Lane Number 4, Swimming Pool</t>
+  </si>
+  <si>
+    <t>R_4kJncQejh6M9Qxb</t>
+  </si>
+  <si>
+    <t>Battli Aroda</t>
+  </si>
+  <si>
+    <t>69 Cubicle, Bathroom Street, UK</t>
+  </si>
+  <si>
+    <t>R_4GQeQB9GOpNtRaW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian </t>
+  </si>
+  <si>
+    <t>Taklu Analogs</t>
+  </si>
+  <si>
+    <t>741 Opamps Circuit Lane, Barkha Avenue, Tiwari</t>
+  </si>
+  <si>
+    <t>R_4TIdkLil27HhMH3</t>
+  </si>
+  <si>
+    <t>Shubhangi katkar</t>
+  </si>
+  <si>
+    <t>Flat no 303 E L Homes Baner pune 411007</t>
+  </si>
+  <si>
+    <t>R_4zatSIgrUgsETE5</t>
+  </si>
+  <si>
+    <t>Suman patidar</t>
+  </si>
+  <si>
+    <t>Swami sandipani coloney solapur</t>
+  </si>
+  <si>
+    <t>R_4M4K1OEOS6Dy9xr</t>
+  </si>
+  <si>
+    <t>Ganesh Kathale</t>
+  </si>
+  <si>
+    <t>FLAT NO 701 RAGADARI APARTMENT NASHIK 423440</t>
+  </si>
+  <si>
+    <t>R_4gezxpDDRaPXKIs</t>
+  </si>
+  <si>
+    <t>Prashant Gandhe</t>
+  </si>
+  <si>
+    <t>PLOT NO 30 PRATIK COLONY SURAT 356003</t>
+  </si>
+  <si>
+    <t>R_4QJpbtn4T8z4ixS</t>
+  </si>
+  <si>
+    <t>Jitu Shinde</t>
+  </si>
+  <si>
+    <t>FLAT NO 1100 SATSANG COLONY SHAHADA 450089</t>
+  </si>
+  <si>
+    <t>R_4ezaMzei6ssNagt</t>
+  </si>
+  <si>
+    <t>Vikas Raj</t>
+  </si>
+  <si>
+    <t>FLAT NO 4 RAMBAG SOCIETY BARUCH 390345</t>
+  </si>
+  <si>
+    <t>R_4ssmicMjtQagK7v</t>
+  </si>
+  <si>
+    <t>Mayur Shah</t>
+  </si>
+  <si>
+    <t>FLAT NO 207 SNEHA VIHAR KOLHAPUR 411002</t>
+  </si>
+  <si>
+    <t>R_1poePVg1gzUKUz7</t>
+  </si>
+  <si>
+    <t>North African</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Juniper Leung</t>
+  </si>
+  <si>
+    <t>60 Pebble Beach Road 743</t>
+  </si>
+  <si>
+    <t>R_7DHnUtjhzr5gTvl</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Elysia Peinado</t>
+  </si>
+  <si>
+    <t>150 Riverbend Avenue 465</t>
+  </si>
+  <si>
+    <t>R_6pnzU40E9DSpr61</t>
+  </si>
+  <si>
+    <t>Lennox Anderson</t>
+  </si>
+  <si>
+    <t>11438 SE 184th Pl, Renton WA</t>
+  </si>
+  <si>
+    <t>R_5hBj9gxvIoDecnz</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Elise Taylor</t>
+  </si>
+  <si>
+    <t>49 Windy Ridge Avenue 240</t>
+  </si>
+  <si>
+    <t>R_4RQSv9iOZkB2f9Z</t>
+  </si>
+  <si>
+    <t>Hiroshi Khatri</t>
+  </si>
+  <si>
+    <t>10 Woodland Drive 748</t>
+  </si>
+  <si>
+    <t>R_6thxkopa8CNYELv</t>
+  </si>
+  <si>
+    <t>Ziya Ali</t>
+  </si>
+  <si>
+    <t>202 Northgate Drive 512</t>
+  </si>
+  <si>
+    <t>R_5MRLVafIukImdof</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Saffron Abraham</t>
+  </si>
+  <si>
+    <t>5 Ocean Drive 432</t>
+  </si>
+  <si>
+    <t>R_6CxrKuxhJ3GtN8K</t>
+  </si>
+  <si>
+    <t>Chinese Canadian</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Jon Reifshneider</t>
+  </si>
+  <si>
+    <t>8 Horizon Avenue 613</t>
+  </si>
+  <si>
+    <t>R_5F0Zpg07Mr16uBz</t>
+  </si>
+  <si>
+    <t>Harlow Smith</t>
+  </si>
+  <si>
+    <t>45 Ivy Lane 602</t>
+  </si>
+  <si>
+    <t>R_1b0CnNoTm0uIas5</t>
+  </si>
+  <si>
+    <t>Ravi Choi</t>
+  </si>
+  <si>
+    <t>R_7QGd13jsljnaCbY</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Harshitha Rasamsetty</t>
+  </si>
+  <si>
+    <t>44 Sand Dune Road 205</t>
+  </si>
+  <si>
+    <t>R_7iI7wmwsdCo4PbX</t>
+  </si>
+  <si>
+    <t>Hina Karpov</t>
+  </si>
+  <si>
+    <t>15 Sea Breeze Avenue 823</t>
+  </si>
+  <si>
+    <t>R_1bhWwiBjHlA1GcF</t>
+  </si>
+  <si>
+    <t>Indo-canadian</t>
+  </si>
+  <si>
+    <t>Eric dundas</t>
+  </si>
+  <si>
+    <t>1315 morreene road</t>
+  </si>
+  <si>
+    <t>R_1zZKZdkb4iInKK7</t>
+  </si>
+  <si>
+    <t>Malia Tanaka</t>
+  </si>
+  <si>
+    <t>21 Harbor View Drive 706</t>
+  </si>
+  <si>
+    <t>R_77p04jkohla1sH9</t>
+  </si>
+  <si>
+    <t>Celine Gupta</t>
+  </si>
+  <si>
+    <t>75 Pine Mountain Road 705</t>
+  </si>
+  <si>
+    <t>R_6E6ELKr8L1H0RnH</t>
+  </si>
+  <si>
+    <t>Calla Pereira</t>
+  </si>
+  <si>
+    <t>3 Meadowbrook Road 874</t>
+  </si>
+  <si>
+    <t>R_7EOlSvi9ctgFRBL</t>
+  </si>
+  <si>
+    <t>Norah Cho</t>
+  </si>
+  <si>
+    <t>R_14L9qNxUlipFmsF</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Alina Patel</t>
+  </si>
+  <si>
+    <t>107 Crystal Lake Drive 327</t>
+  </si>
+  <si>
+    <t>R_4shv1y28wS6SaPv</t>
+  </si>
+  <si>
+    <t>Mehak</t>
+  </si>
+  <si>
+    <t>Fenway park, boston, Massachusetts</t>
+  </si>
+  <si>
+    <t>R_41aiHA1p9OLYbuY</t>
+  </si>
+  <si>
+    <t>Ranjendra Pingle</t>
+  </si>
+  <si>
+    <t>Flat 202 Roop Ganga Pune</t>
+  </si>
+  <si>
+    <t>R_7NCxNP8jSj5mq6n</t>
+  </si>
+  <si>
+    <t>Zander Burrows</t>
+  </si>
+  <si>
+    <t>50 Harvest Lane 591</t>
+  </si>
+  <si>
+    <t>R_1oLUlgQk6qINvsk</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Roshan Coelho</t>
+  </si>
+  <si>
+    <t>77 Maplewood Drive 659</t>
+  </si>
+  <si>
+    <t>R_5re0w7ElTMqvkCP</t>
+  </si>
+  <si>
+    <t>Beatriz Kim</t>
+  </si>
+  <si>
+    <t>207 Westside Lane 528</t>
+  </si>
+  <si>
+    <t>R_34RasWwKijJI5sB</t>
+  </si>
+  <si>
+    <t>Calder Fuchs</t>
+  </si>
+  <si>
+    <t>160 Sunset Drive 885</t>
+  </si>
+  <si>
+    <t>R_6rCTqJtaK9fNxHq</t>
+  </si>
+  <si>
+    <t>Isla de Souza</t>
+  </si>
+  <si>
+    <t>R_3g4JxW8aBdFTYoc</t>
+  </si>
+  <si>
+    <t>Laila Zhou</t>
+  </si>
+  <si>
+    <t>32 Crystal Springs Boulevard 450</t>
+  </si>
+  <si>
+    <t>R_3gToFAf4MoM9dl8</t>
+  </si>
+  <si>
+    <t>Rami Vasilyev</t>
+  </si>
+  <si>
+    <t>99 Sunnyville Boulevard 342</t>
+  </si>
+  <si>
+    <t>R_3uvOS0cUzHJeF6p</t>
+  </si>
+  <si>
+    <t>Niko Coelho</t>
+  </si>
+  <si>
+    <t>75 Valley Grove Road 768</t>
+  </si>
+  <si>
+    <t>R_5MYVgvg6SSesm0n</t>
+  </si>
+  <si>
+    <t>Maxine Jensen</t>
+  </si>
+  <si>
+    <t>40 Westfield Road 207</t>
+  </si>
+  <si>
+    <t>R_3OihBnBKQuMFAz4</t>
+  </si>
+  <si>
+    <t>Aurora Ferrari</t>
+  </si>
+  <si>
+    <t>77 Spruce Way 920</t>
+  </si>
+  <si>
+    <t>R_7HEfVLTSyuEezdf</t>
+  </si>
+  <si>
+    <t>Sanaa Letourneau</t>
+  </si>
+  <si>
+    <t>67 Mountain View Drive 214</t>
+  </si>
+  <si>
+    <t>R_1tDKM2lNpA5vaZb</t>
+  </si>
+  <si>
+    <t>Sabrina Shirodkar</t>
+  </si>
+  <si>
+    <t>114 Park Avenue, Chicago, IL, 67004</t>
+  </si>
+  <si>
+    <t>R_1zin13bSMyOVRnJ</t>
+  </si>
+  <si>
+    <t>Layla Knudsen</t>
+  </si>
+  <si>
+    <t>R_1VaNGgPhYxnUTbC</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Niklas Shah</t>
+  </si>
+  <si>
+    <t>86 Timberline Boulevard 664</t>
+  </si>
+  <si>
+    <t>R_4aYapHeUHBuU8XG</t>
+  </si>
+  <si>
+    <t>Soraya Balasubramanian</t>
+  </si>
+  <si>
+    <t>110 Bluebell Lane 973</t>
+  </si>
+  <si>
+    <t>R_3vhWAQpPNAgLass</t>
+  </si>
+  <si>
+    <t>Rowena Taneja</t>
+  </si>
+  <si>
+    <t>456 Birch Boulevard 349</t>
+  </si>
+  <si>
+    <t>R_57WCdr3dpzLNhbe</t>
+  </si>
+  <si>
+    <t>Liam Ali</t>
+  </si>
+  <si>
+    <t>R_1wB3pJ1YQM5wyqI</t>
+  </si>
+  <si>
+    <t>Seraphina Ivanov</t>
+  </si>
+  <si>
+    <t>128 Cedar Avenue 401</t>
+  </si>
+  <si>
+    <t>R_3i2ltOSffNPHRfR</t>
+  </si>
+  <si>
+    <t>Ciaran MacLeod</t>
+  </si>
+  <si>
+    <t>R_7pKNTfB39Yc3I41</t>
+  </si>
+  <si>
+    <t>Middle Asian</t>
+  </si>
+  <si>
+    <t>Uyghur</t>
+  </si>
+  <si>
+    <t>Benji Chatterjee</t>
+  </si>
+  <si>
+    <t>R_5jebEVEgcwRTOcO</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>Calder Jackson</t>
+  </si>
+  <si>
+    <t>301 Massachusetts Avenue 1462</t>
+  </si>
+  <si>
+    <t>R_1QrO96YnPAaHofK</t>
+  </si>
+  <si>
+    <t>Ivan Hwang</t>
+  </si>
+  <si>
+    <t>430 Autumn Lane 274</t>
+  </si>
+  <si>
+    <t>R_7Vlj2RdVyGOM7Yz</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Solana Chatterjee</t>
+  </si>
+  <si>
+    <t>29 Summer Breeze Lane 571</t>
+  </si>
+  <si>
+    <t>R_7H8pYLcVGrTM7g5</t>
+  </si>
+  <si>
+    <t>Indo-English</t>
+  </si>
+  <si>
+    <t>Freya Hamed</t>
+  </si>
+  <si>
+    <t>78 Sunset Boulevard 789</t>
+  </si>
+  <si>
+    <t>R_15Rh8IA5GvyzCIF</t>
+  </si>
+  <si>
+    <t>Jarek Ferrari</t>
+  </si>
+  <si>
+    <t>84 River Road 814</t>
+  </si>
+  <si>
+    <t>Gujrati</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +825,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1109,3142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.3046875" customWidth="1"/>
+    <col min="13" max="13" width="21.3046875" customWidth="1"/>
+    <col min="14" max="14" width="24.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8885112931</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9196856019</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43126798</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5993415111</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2563144191</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6537986847</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2615640089</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8717379417</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2488140980</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8829090933</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9783812441</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1253579821</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5286564231</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7998735821</v>
+      </c>
+      <c r="N17" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2512254291</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7413825402</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="1">
+        <v>9530589346</v>
+      </c>
+      <c r="N20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="1">
+        <v>9370524963</v>
+      </c>
+      <c r="N21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="1">
+        <v>813546798</v>
+      </c>
+      <c r="N22" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="1">
+        <v>123459876</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7773330000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="1">
+        <v>6578902300</v>
+      </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9898005600</v>
+      </c>
+      <c r="N26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="1">
+        <v>9679778449</v>
+      </c>
+      <c r="N27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5473978936</v>
+      </c>
+      <c r="N28" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3619713354</v>
+      </c>
+      <c r="N29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O29">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="1">
+        <v>7285242379</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4001291474</v>
+      </c>
+      <c r="N31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O31">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8178069680</v>
+      </c>
+      <c r="N32" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3788618965</v>
+      </c>
+      <c r="N33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="N34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O34">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5595476016</v>
+      </c>
+      <c r="N35" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>143</v>
+      </c>
+      <c r="M36" s="1">
+        <v>8292159357</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M37" s="1">
+        <v>2873764800</v>
+      </c>
+      <c r="N37" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" s="1">
+        <v>8985955886</v>
+      </c>
+      <c r="N38" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>153</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7</v>
+      </c>
+      <c r="N39" t="s">
+        <v>154</v>
+      </c>
+      <c r="O39">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M40" s="1">
+        <v>9281822959</v>
+      </c>
+      <c r="N40" t="s">
+        <v>157</v>
+      </c>
+      <c r="O40">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1712391906</v>
+      </c>
+      <c r="N41" t="s">
+        <v>160</v>
+      </c>
+      <c r="O41">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>162</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1709916637</v>
+      </c>
+      <c r="N42" t="s">
+        <v>163</v>
+      </c>
+      <c r="O42">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>165</v>
+      </c>
+      <c r="M43" s="1">
+        <v>9356122945</v>
+      </c>
+      <c r="N43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" t="s">
+        <v>168</v>
+      </c>
+      <c r="M44" s="1">
+        <v>3041254855</v>
+      </c>
+      <c r="N44" t="s">
+        <v>169</v>
+      </c>
+      <c r="O44">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>171</v>
+      </c>
+      <c r="M45" s="1">
+        <v>9811219666</v>
+      </c>
+      <c r="N45" t="s">
+        <v>172</v>
+      </c>
+      <c r="O45">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>174</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1234567898</v>
+      </c>
+      <c r="N46" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>177</v>
+      </c>
+      <c r="M47" s="1">
+        <v>4885080040</v>
+      </c>
+      <c r="N47" t="s">
+        <v>178</v>
+      </c>
+      <c r="O47">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>181</v>
+      </c>
+      <c r="M48" s="1">
+        <v>6163483977</v>
+      </c>
+      <c r="N48" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>184</v>
+      </c>
+      <c r="M49" s="1">
+        <v>4904368573</v>
+      </c>
+      <c r="N49" t="s">
+        <v>185</v>
+      </c>
+      <c r="O49">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>187</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1855749866</v>
+      </c>
+      <c r="N50" t="s">
+        <v>188</v>
+      </c>
+      <c r="O50">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>190</v>
+      </c>
+      <c r="M51" s="1">
+        <v>9661113443</v>
+      </c>
+      <c r="N51" t="s">
+        <v>64</v>
+      </c>
+      <c r="O51">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" s="1">
+        <v>5116853235</v>
+      </c>
+      <c r="N52" t="s">
+        <v>193</v>
+      </c>
+      <c r="O52">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>195</v>
+      </c>
+      <c r="M53" s="1">
+        <v>7499218381</v>
+      </c>
+      <c r="N53" t="s">
+        <v>196</v>
+      </c>
+      <c r="O53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>198</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3053578003</v>
+      </c>
+      <c r="N54" t="s">
+        <v>199</v>
+      </c>
+      <c r="O54">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>201</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1056058263</v>
+      </c>
+      <c r="N55" t="s">
+        <v>202</v>
+      </c>
+      <c r="O55">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>204</v>
+      </c>
+      <c r="M56" s="1">
+        <v>9299574124</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
+      <c r="O56">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>207</v>
+      </c>
+      <c r="M57" s="1">
+        <v>6686412385</v>
+      </c>
+      <c r="N57" t="s">
+        <v>208</v>
+      </c>
+      <c r="O57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>210</v>
+      </c>
+      <c r="M58" s="1">
+        <v>9568214730</v>
+      </c>
+      <c r="N58" t="s">
+        <v>211</v>
+      </c>
+      <c r="O58">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M59" s="1">
+        <v>5363648030</v>
+      </c>
+      <c r="N59" t="s">
+        <v>138</v>
+      </c>
+      <c r="O59">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>216</v>
+      </c>
+      <c r="M60" s="1">
+        <v>5142296612</v>
+      </c>
+      <c r="N60" t="s">
+        <v>217</v>
+      </c>
+      <c r="O60">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>219</v>
+      </c>
+      <c r="M61" s="1">
+        <v>2312324633</v>
+      </c>
+      <c r="N61" t="s">
+        <v>220</v>
+      </c>
+      <c r="O61">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" t="s">
+        <v>222</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4127415553</v>
+      </c>
+      <c r="N62" t="s">
+        <v>223</v>
+      </c>
+      <c r="O62">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>114</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>225</v>
+      </c>
+      <c r="M63" s="1">
+        <v>8114844717</v>
+      </c>
+      <c r="N63" t="s">
+        <v>163</v>
+      </c>
+      <c r="O63">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>227</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2288775400</v>
+      </c>
+      <c r="N64" t="s">
+        <v>228</v>
+      </c>
+      <c r="O64">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>230</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2853006411</v>
+      </c>
+      <c r="N65" t="s">
+        <v>133</v>
+      </c>
+      <c r="O65">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>234</v>
+      </c>
+      <c r="M66" s="1">
+        <v>6341735686</v>
+      </c>
+      <c r="N66" t="s">
+        <v>228</v>
+      </c>
+      <c r="O66">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1808231222</v>
+      </c>
+      <c r="N67" t="s">
+        <v>238</v>
+      </c>
+      <c r="O67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>180</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>240</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1928374655</v>
+      </c>
+      <c r="N68" t="s">
+        <v>241</v>
+      </c>
+      <c r="O68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>243</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>244</v>
+      </c>
+      <c r="M69" s="1">
+        <v>5735062913</v>
+      </c>
+      <c r="N69" t="s">
+        <v>245</v>
+      </c>
+      <c r="O69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>247</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>248</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1314559375</v>
+      </c>
+      <c r="N70" t="s">
+        <v>249</v>
+      </c>
+      <c r="O70">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>251</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1045562375</v>
+      </c>
+      <c r="N71" t="s">
+        <v>252</v>
+      </c>
+      <c r="O71">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>